--- a/natmiOut/OldD4/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N2">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O2">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P2">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q2">
-        <v>1696.591603184427</v>
+        <v>1826.095322072909</v>
       </c>
       <c r="R2">
-        <v>1696.591603184427</v>
+        <v>16434.85789865618</v>
       </c>
       <c r="S2">
-        <v>0.02883133153433991</v>
+        <v>0.02843810316579299</v>
       </c>
       <c r="T2">
-        <v>0.02883133153433991</v>
+        <v>0.03062781047450749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H3">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I3">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J3">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N3">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O3">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P3">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q3">
-        <v>2820.536762466807</v>
+        <v>3057.986639684565</v>
       </c>
       <c r="R3">
-        <v>2820.536762466807</v>
+        <v>27521.87975716108</v>
       </c>
       <c r="S3">
-        <v>0.04793129374850173</v>
+        <v>0.04762256301070255</v>
       </c>
       <c r="T3">
-        <v>0.04793129374850173</v>
+        <v>0.05128945575936118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H4">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I4">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J4">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N4">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O4">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P4">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q4">
-        <v>3089.728440761286</v>
+        <v>3380.360454935811</v>
       </c>
       <c r="R4">
-        <v>3089.728440761286</v>
+        <v>30423.24409442229</v>
       </c>
       <c r="S4">
-        <v>0.05250585047071243</v>
+        <v>0.05264294705377563</v>
       </c>
       <c r="T4">
-        <v>0.05250585047071243</v>
+        <v>0.05669640467167257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H5">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I5">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J5">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N5">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O5">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P5">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q5">
-        <v>3578.012914988367</v>
+        <v>3622.873961307501</v>
       </c>
       <c r="R5">
-        <v>3578.012914988367</v>
+        <v>32605.86565176751</v>
       </c>
       <c r="S5">
-        <v>0.06080359963620886</v>
+        <v>0.05641965248088748</v>
       </c>
       <c r="T5">
-        <v>0.06080359963620886</v>
+        <v>0.06076391287941982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H6">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I6">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J6">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N6">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O6">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P6">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q6">
-        <v>1655.039989730651</v>
+        <v>1700.393321660644</v>
       </c>
       <c r="R6">
-        <v>1655.039989730651</v>
+        <v>10202.35992996386</v>
       </c>
       <c r="S6">
-        <v>0.02812521679168531</v>
+        <v>0.02648052383646604</v>
       </c>
       <c r="T6">
-        <v>0.02812521679168531</v>
+        <v>0.01901299958019063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H7">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J7">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N7">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O7">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P7">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q7">
-        <v>1973.319516696119</v>
+        <v>2312.460346403205</v>
       </c>
       <c r="R7">
-        <v>1973.319516696119</v>
+        <v>20812.14311762885</v>
       </c>
       <c r="S7">
-        <v>0.03353395661175193</v>
+        <v>0.03601235110945326</v>
       </c>
       <c r="T7">
-        <v>0.03353395661175193</v>
+        <v>0.03878526841580918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N8">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O8">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P8">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q8">
-        <v>3280.589288835238</v>
+        <v>3872.455483908745</v>
       </c>
       <c r="R8">
-        <v>3280.589288835238</v>
+        <v>34852.0993551787</v>
       </c>
       <c r="S8">
-        <v>0.05574927828057363</v>
+        <v>0.06030642936609022</v>
       </c>
       <c r="T8">
-        <v>0.05574927828057363</v>
+        <v>0.06494996794443832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H9">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J9">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N9">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O9">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P9">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q9">
-        <v>3593.688323107033</v>
+        <v>4280.690834756138</v>
       </c>
       <c r="R9">
-        <v>3593.688323107033</v>
+        <v>38526.21751280524</v>
       </c>
       <c r="S9">
-        <v>0.06106998247551859</v>
+        <v>0.06666395018277099</v>
       </c>
       <c r="T9">
-        <v>0.06106998247551859</v>
+        <v>0.07179701190956644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H10">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J10">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N10">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O10">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P10">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q10">
-        <v>4161.615973393335</v>
+        <v>4587.795759769107</v>
       </c>
       <c r="R10">
-        <v>4161.615973393335</v>
+        <v>41290.16183792197</v>
       </c>
       <c r="S10">
-        <v>0.07072116213607424</v>
+        <v>0.07144654911650465</v>
       </c>
       <c r="T10">
-        <v>0.07072116213607424</v>
+        <v>0.07694786648182822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H11">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J11">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N11">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O11">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P11">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q11">
-        <v>1924.990496544983</v>
+        <v>2153.278682717131</v>
       </c>
       <c r="R11">
-        <v>1924.990496544983</v>
+        <v>12919.67209630279</v>
       </c>
       <c r="S11">
-        <v>0.03271266880147875</v>
+        <v>0.03353338710396615</v>
       </c>
       <c r="T11">
-        <v>0.03271266880147875</v>
+        <v>0.02407695100246043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H12">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I12">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J12">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N12">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O12">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P12">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q12">
-        <v>1471.63899293993</v>
+        <v>1582.738110028581</v>
       </c>
       <c r="R12">
-        <v>1471.63899293993</v>
+        <v>14244.64299025723</v>
       </c>
       <c r="S12">
-        <v>0.02500855929304102</v>
+        <v>0.02464825856206203</v>
       </c>
       <c r="T12">
-        <v>0.02500855929304102</v>
+        <v>0.0265461513858476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H13">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I13">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J13">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N13">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O13">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P13">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q13">
-        <v>2446.559250249627</v>
+        <v>2650.459664445577</v>
       </c>
       <c r="R13">
-        <v>2446.559250249627</v>
+        <v>23854.13698001019</v>
       </c>
       <c r="S13">
-        <v>0.04157604029747479</v>
+        <v>0.04127607385178273</v>
       </c>
       <c r="T13">
-        <v>0.04157604029747479</v>
+        <v>0.04445429287930935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N14">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O14">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P14">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q14">
-        <v>2680.058561226727</v>
+        <v>2929.871870865482</v>
       </c>
       <c r="R14">
-        <v>2680.058561226727</v>
+        <v>26368.84683778934</v>
       </c>
       <c r="S14">
-        <v>0.04554405241965251</v>
+        <v>0.04562740921522433</v>
       </c>
       <c r="T14">
-        <v>0.04554405241965251</v>
+        <v>0.04914067699028685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H15">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I15">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J15">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N15">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O15">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P15">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q15">
-        <v>3103.600956798534</v>
+        <v>3140.066467002676</v>
       </c>
       <c r="R15">
-        <v>3103.600956798534</v>
+        <v>28260.59820302408</v>
       </c>
       <c r="S15">
-        <v>0.0527415955423812</v>
+        <v>0.04890080657711902</v>
       </c>
       <c r="T15">
-        <v>0.0527415955423812</v>
+        <v>0.05266612288319221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H16">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I16">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J16">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N16">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O16">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P16">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q16">
-        <v>1435.596745375243</v>
+        <v>1473.787966980475</v>
       </c>
       <c r="R16">
-        <v>1435.596745375243</v>
+        <v>8842.727801882853</v>
       </c>
       <c r="S16">
-        <v>0.02439606894071944</v>
+        <v>0.02295155884957778</v>
       </c>
       <c r="T16">
-        <v>0.02439606894071944</v>
+        <v>0.01647920492308432</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H17">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I17">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J17">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N17">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O17">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P17">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q17">
-        <v>1879.68819252358</v>
+        <v>2103.943672287445</v>
       </c>
       <c r="R17">
-        <v>1879.68819252358</v>
+        <v>18935.493050587</v>
       </c>
       <c r="S17">
-        <v>0.03194281603074774</v>
+        <v>0.03276508432188997</v>
       </c>
       <c r="T17">
-        <v>0.03194281603074774</v>
+        <v>0.03528796512698494</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H18">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I18">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J18">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N18">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O18">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P18">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q18">
-        <v>3124.92979396835</v>
+        <v>3523.272614925962</v>
       </c>
       <c r="R18">
-        <v>3124.92979396835</v>
+        <v>31709.45353433366</v>
       </c>
       <c r="S18">
-        <v>0.05310405093502294</v>
+        <v>0.05486854322081075</v>
       </c>
       <c r="T18">
-        <v>0.05310405093502294</v>
+        <v>0.05909336965908198</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H19">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I19">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J19">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N19">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O19">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P19">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q19">
-        <v>3423.172705383217</v>
+        <v>3894.697009102216</v>
       </c>
       <c r="R19">
-        <v>3423.172705383217</v>
+        <v>35052.27308191994</v>
       </c>
       <c r="S19">
-        <v>0.05817229496065018</v>
+        <v>0.06065280054418323</v>
       </c>
       <c r="T19">
-        <v>0.05817229496065018</v>
+        <v>0.06532300937883415</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H20">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I20">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J20">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N20">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O20">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P20">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q20">
-        <v>3964.152961960296</v>
+        <v>4174.110000859821</v>
       </c>
       <c r="R20">
-        <v>3964.152961960296</v>
+        <v>37566.99000773839</v>
       </c>
       <c r="S20">
-        <v>0.06736553928747038</v>
+        <v>0.06500414813782675</v>
       </c>
       <c r="T20">
-        <v>0.06736553928747038</v>
+        <v>0.07000940666172767</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H21">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I21">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J21">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N21">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O21">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P21">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q21">
-        <v>1833.652318573263</v>
+        <v>1959.115565471507</v>
       </c>
       <c r="R21">
-        <v>1833.652318573263</v>
+        <v>11754.69339282904</v>
       </c>
       <c r="S21">
-        <v>0.03116049720879703</v>
+        <v>0.03050965077844121</v>
       </c>
       <c r="T21">
-        <v>0.03116049720879703</v>
+        <v>0.02190591020874911</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H22">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I22">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J22">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.7235815187523</v>
+        <v>18.89975433333333</v>
       </c>
       <c r="N22">
-        <v>17.7235815187523</v>
+        <v>56.699263</v>
       </c>
       <c r="O22">
-        <v>0.1321342315759097</v>
+        <v>0.1343931657679153</v>
       </c>
       <c r="P22">
-        <v>0.1321342315759097</v>
+        <v>0.1402432742408926</v>
       </c>
       <c r="Q22">
-        <v>754.2550851677602</v>
+        <v>804.548083657935</v>
       </c>
       <c r="R22">
-        <v>754.2550851677602</v>
+        <v>4827.28850194761</v>
       </c>
       <c r="S22">
-        <v>0.0128175681060291</v>
+        <v>0.01252936860871707</v>
       </c>
       <c r="T22">
-        <v>0.0128175681060291</v>
+        <v>0.008996078837743383</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H23">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I23">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J23">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.4649656065662</v>
+        <v>31.64960533333333</v>
       </c>
       <c r="N23">
-        <v>29.4649656065662</v>
+        <v>94.94881599999999</v>
       </c>
       <c r="O23">
-        <v>0.2196695168363642</v>
+        <v>0.2250553409866243</v>
       </c>
       <c r="P23">
-        <v>0.2196695168363642</v>
+        <v>0.2348519563849719</v>
       </c>
       <c r="Q23">
-        <v>1253.928283035326</v>
+        <v>1347.29948709192</v>
       </c>
       <c r="R23">
-        <v>1253.928283035326</v>
+        <v>8083.796922551519</v>
       </c>
       <c r="S23">
-        <v>0.02130885357479114</v>
+        <v>0.02098173153723803</v>
       </c>
       <c r="T23">
-        <v>0.02130885357479114</v>
+        <v>0.01506487014278105</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H24">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I24">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J24">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.2770982644592</v>
+        <v>34.98611566666667</v>
       </c>
       <c r="N24">
-        <v>32.2770982644592</v>
+        <v>104.958347</v>
       </c>
       <c r="O24">
-        <v>0.2406347482399079</v>
+        <v>0.2487807385979141</v>
       </c>
       <c r="P24">
-        <v>0.2406347482399079</v>
+        <v>0.2596101159585049</v>
       </c>
       <c r="Q24">
-        <v>1373.603042628242</v>
+        <v>1489.332179551515</v>
       </c>
       <c r="R24">
-        <v>1373.603042628242</v>
+        <v>8935.993077309091</v>
       </c>
       <c r="S24">
-        <v>0.0233425679133742</v>
+        <v>0.02319363160195987</v>
       </c>
       <c r="T24">
-        <v>0.0233425679133742</v>
+        <v>0.01665301300814486</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H25">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I25">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J25">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.378001550236</v>
+        <v>37.49608633333333</v>
       </c>
       <c r="N25">
-        <v>37.378001550236</v>
+        <v>112.488259</v>
       </c>
       <c r="O25">
-        <v>0.2786634014946706</v>
+        <v>0.2666287432824513</v>
       </c>
       <c r="P25">
-        <v>0.2786634014946706</v>
+        <v>0.2782350408296763</v>
       </c>
       <c r="Q25">
-        <v>1590.680061636809</v>
+        <v>1596.179710703955</v>
       </c>
       <c r="R25">
-        <v>1590.680061636809</v>
+        <v>9577.07826422373</v>
       </c>
       <c r="S25">
-        <v>0.02703150489253587</v>
+        <v>0.02485758697011345</v>
       </c>
       <c r="T25">
-        <v>0.02703150489253587</v>
+        <v>0.01784773192350837</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H26">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I26">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J26">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.2895092252779</v>
+        <v>17.5987615</v>
       </c>
       <c r="N26">
-        <v>17.2895092252779</v>
+        <v>35.197523</v>
       </c>
       <c r="O26">
-        <v>0.1288981018531475</v>
+        <v>0.1251420113650951</v>
       </c>
       <c r="P26">
-        <v>0.1288981018531475</v>
+        <v>0.08705961258595417</v>
       </c>
       <c r="Q26">
-        <v>735.7824511610785</v>
+        <v>749.1658140024525</v>
       </c>
       <c r="R26">
-        <v>735.7824511610785</v>
+        <v>2996.66325600981</v>
       </c>
       <c r="S26">
-        <v>0.01250365011046699</v>
+        <v>0.01166689079664397</v>
       </c>
       <c r="T26">
-        <v>0.01250365011046699</v>
+        <v>0.00558454687146967</v>
       </c>
     </row>
   </sheetData>
